--- a/results/11-2021/11-2021_comparison_deflators.xlsx
+++ b/results/11-2021/11-2021_comparison_deflators.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -465,10 +465,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -650,31 +650,31 @@
         <v>-0.039</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3206</v>
+        <v>-0.3141</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2147</v>
+        <v>-0.2084</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0913</v>
+        <v>-0.0851</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2051</v>
+        <v>-0.1989</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1596</v>
+        <v>-0.1534</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1051</v>
+        <v>-0.099</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.529</v>
+        <v>-0.5229</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2732</v>
+        <v>-0.2671</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.167</v>
+        <v>-0.1609</v>
       </c>
     </row>
     <row r="6">
@@ -691,31 +691,31 @@
         <v>-0.0283</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0239</v>
+        <v>-0.0242</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0574</v>
+        <v>-0.0312</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0549</v>
+        <v>-0.0283</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0607</v>
+        <v>-0.0361</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0456</v>
+        <v>-0.0285</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0777</v>
+        <v>-0.069</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0732</v>
+        <v>-0.0737</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0478</v>
+        <v>-0.0568</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0395</v>
+        <v>-0.0442</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         <v>-0.1228</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1269</v>
+        <v>-0.1267</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0281</v>
+        <v>-0.0418</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1232</v>
+        <v>0.0544</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.085</v>
+        <v>-0.0828</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1123</v>
+        <v>-0.1407</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1622</v>
+        <v>-0.1542</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1789</v>
+        <v>-0.2003</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0449</v>
+        <v>-0.0724</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1271</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="8">
@@ -773,31 +773,31 @@
         <v>-0.2126</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1864</v>
+        <v>-0.2557</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0493</v>
+        <v>-0.3001</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3238</v>
+        <v>-0.6123</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2706</v>
+        <v>-0.5525</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1706</v>
+        <v>-0.336</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0473</v>
+        <v>-0.1104</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0029</v>
+        <v>-0.0381</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0211</v>
+        <v>0.02</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0402</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="9">
@@ -808,13 +808,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0224</v>
+        <v>-0.0226</v>
       </c>
       <c r="D9" t="n">
         <v>0.0448</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0063</v>
+        <v>0.0061</v>
       </c>
       <c r="F9" t="n">
         <v>-0.003</v>
@@ -832,7 +832,7 @@
         <v>-0.0439</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0496</v>
+        <v>-0.0498</v>
       </c>
       <c r="L9" t="n">
         <v>-0.0213</v>
@@ -849,37 +849,37 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1231</v>
+        <v>0.194</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1382</v>
+        <v>0.4519</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2464</v>
+        <v>0.0944</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2121</v>
+        <v>0.1107</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1649</v>
+        <v>0.0547</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1224</v>
+        <v>-0.0496</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1438</v>
+        <v>-0.1522</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1364</v>
+        <v>-0.0842</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1463</v>
+        <v>-0.1234</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1453</v>
+        <v>-0.154</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.125</v>
+        <v>-0.0847</v>
       </c>
     </row>
     <row r="11">
@@ -931,37 +931,37 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1684</v>
+        <v>-0.3469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0324</v>
+        <v>-0.0562</v>
       </c>
       <c r="E12" t="n">
-        <v>0.473</v>
+        <v>-0.0535</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9518</v>
+        <v>-0.2471</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1382</v>
+        <v>0.7385</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.9417</v>
+        <v>0.271</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.9039</v>
+        <v>0.2848</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1966</v>
+        <v>-0.4164</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1772</v>
+        <v>-0.3931</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0098</v>
+        <v>-0.2219</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0059</v>
+        <v>-0.2025</v>
       </c>
     </row>
     <row r="13">
@@ -978,31 +978,31 @@
         <v>0.2321</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.162</v>
+        <v>-0.1389</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1432</v>
+        <v>-0.1073</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1576</v>
+        <v>-0.1219</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1442</v>
+        <v>-0.1116</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.038</v>
+        <v>-0.0509</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0374</v>
+        <v>-0.0428</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6078</v>
+        <v>-0.6116</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.644</v>
+        <v>-0.646</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.3009</v>
+        <v>-0.303</v>
       </c>
     </row>
     <row r="14">
@@ -1054,37 +1054,37 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.2358</v>
+        <v>-2.3436</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.3933</v>
+        <v>-2.1682</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.9882</v>
+        <v>-2.7222</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.9489</v>
+        <v>-1.5425</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.3108</v>
+        <v>-2.7782</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.7595</v>
+        <v>-1.9507</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.2859</v>
+        <v>-1.3203</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.8796</v>
+        <v>-2.205</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.9974</v>
+        <v>-3.3709</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.234</v>
+        <v>-1.649</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.5149</v>
+        <v>-0.9288</v>
       </c>
     </row>
     <row r="16">
@@ -1142,31 +1142,31 @@
         <v>0.4323</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2506</v>
+        <v>-0.2442</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1483</v>
+        <v>-0.142</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1314</v>
+        <v>0.1377</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0706</v>
+        <v>0.0768</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1</v>
+        <v>0.1061</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0868</v>
+        <v>0.0929</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.3651</v>
+        <v>-0.359</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.1309</v>
+        <v>-0.1248</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.046</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="18">
@@ -1306,31 +1306,31 @@
         <v>-0.1771</v>
       </c>
       <c r="E21" t="n">
-        <v>0.763</v>
+        <v>0.7565</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5176</v>
+        <v>0.5113</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1189</v>
+        <v>0.1127</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0746</v>
+        <v>0.0684</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1043</v>
+        <v>-0.1105</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1393</v>
+        <v>-0.1454</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3156</v>
+        <v>0.3095</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0799</v>
+        <v>0.0739</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0063</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="22">
@@ -1347,31 +1347,31 @@
         <v>-0.0285</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0269</v>
+        <v>-0.036</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0195</v>
+        <v>-0.0281</v>
       </c>
       <c r="G22" t="n">
+        <v>-0.0288</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.0281</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.0278</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.0298</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.0306</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.0219</v>
+      </c>
+      <c r="M22" t="n">
         <v>-0.0203</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0198</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-0.0196</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-0.0219</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-0.0229</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-0.0144</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-0.0129</v>
       </c>
     </row>
     <row r="23">
@@ -1391,28 +1391,28 @@
         <v>0.1152</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0224</v>
+        <v>0.048</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0993</v>
+        <v>-0.0297</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1185</v>
+        <v>0.1174</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1166</v>
+        <v>0.0996</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1947</v>
+        <v>0.0967</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1842</v>
+        <v>0.0727</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0169</v>
+        <v>-0.074</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0081</v>
+        <v>-0.0578</v>
       </c>
     </row>
     <row r="24">
@@ -1511,31 +1511,31 @@
         <v>157.4</v>
       </c>
       <c r="E26" t="n">
-        <v>159.2979</v>
+        <v>159.2929</v>
       </c>
       <c r="F26" t="n">
-        <v>161.2187</v>
+        <v>161.2086</v>
       </c>
       <c r="G26" t="n">
-        <v>163.1626</v>
+        <v>163.1473</v>
       </c>
       <c r="H26" t="n">
-        <v>165.13</v>
+        <v>165.1093</v>
       </c>
       <c r="I26" t="n">
-        <v>167.1211</v>
+        <v>167.0949</v>
       </c>
       <c r="J26" t="n">
-        <v>169.1363</v>
+        <v>169.1044</v>
       </c>
       <c r="K26" t="n">
-        <v>171.1757</v>
+        <v>171.1381</v>
       </c>
       <c r="L26" t="n">
-        <v>173.2397</v>
+        <v>173.1962</v>
       </c>
       <c r="M26" t="n">
-        <v>175.3286</v>
+        <v>175.2791</v>
       </c>
     </row>
     <row r="27">
@@ -1757,31 +1757,31 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.1114</v>
+        <v>-0.105</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1123</v>
+        <v>-0.106</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1142</v>
+        <v>-0.108</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1166</v>
+        <v>-0.1104</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1193</v>
+        <v>-0.1132</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1224</v>
+        <v>-0.1163</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.1257</v>
+        <v>-0.1196</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.129</v>
+        <v>-0.123</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.1328</v>
+        <v>-0.1267</v>
       </c>
     </row>
     <row r="33">
@@ -1798,31 +1798,31 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.0262</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0266</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.0247</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.0087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0091</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="34">
@@ -1839,31 +1839,31 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-0.0699</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-0.0688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-0.0284</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.0215</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.1174</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-0.1386</v>
       </c>
     </row>
     <row r="35">
@@ -1880,31 +1880,31 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-0.0693</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-0.2508</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-0.2885</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-0.2819</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-0.1653</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-0.0631</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.0353</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="36">
@@ -1915,13 +1915,13 @@
         <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -1956,37 +1956,37 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.0709</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.3138</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-0.152</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-0.1014</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-0.1102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-0.1719</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-0.0084</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.0522</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.0229</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-0.0087</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="38">
@@ -2038,37 +2038,37 @@
         <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-0.1785</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-0.0886</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-0.5265</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0008</v>
+        <v>0.7039</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.8767</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.2127</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.1886</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>-0.2198</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-0.2159</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-0.2121</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>-0.2084</v>
       </c>
     </row>
     <row r="40">
@@ -2085,31 +2085,31 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.0231</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.0358</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.0326</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-0.0129</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-0.0054</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-0.0039</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="41">
@@ -2161,37 +2161,37 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001</v>
+        <v>-0.1076</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.2252</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0002</v>
+        <v>-0.7338</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0008</v>
+        <v>0.4056</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.5325</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.8088</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.9655</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>-0.3254</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0002</v>
+        <v>-0.3734</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>-0.415</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>-0.4139</v>
       </c>
     </row>
     <row r="43">
@@ -2249,31 +2249,31 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.1114</v>
+        <v>-0.105</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1123</v>
+        <v>-0.106</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1142</v>
+        <v>-0.108</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1166</v>
+        <v>-0.1104</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.1193</v>
+        <v>-0.1132</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.1224</v>
+        <v>-0.1163</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.1257</v>
+        <v>-0.1196</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.129</v>
+        <v>-0.123</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.1328</v>
+        <v>-0.1267</v>
       </c>
     </row>
     <row r="45">
@@ -2413,31 +2413,31 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1114</v>
+        <v>0.105</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1123</v>
+        <v>0.106</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1142</v>
+        <v>0.108</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1166</v>
+        <v>0.1104</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1193</v>
+        <v>0.1132</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1224</v>
+        <v>0.1163</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1257</v>
+        <v>0.1196</v>
       </c>
       <c r="L48" t="n">
-        <v>0.129</v>
+        <v>0.123</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1328</v>
+        <v>0.1267</v>
       </c>
     </row>
     <row r="49">
@@ -2454,31 +2454,31 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-0.0091</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>-0.0086</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>-0.0085</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>-0.0083</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>-0.0081</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>-0.0079</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-0.0077</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>-0.0075</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="50">
@@ -2495,31 +2495,31 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.0704</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.0696</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>-0.0169</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>-0.098</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-0.1115</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>-0.0571</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>-0.0659</v>
       </c>
     </row>
     <row r="51">
@@ -2618,31 +2618,31 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>-0.0101</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>-0.0154</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>-0.0207</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>-0.0262</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>-0.0318</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-0.0376</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>-0.0435</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="54">

--- a/results/11-2021/11-2021_comparison_deflators.xlsx
+++ b/results/11-2021/11-2021_comparison_deflators.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -465,10 +465,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>

--- a/results/11-2021/11-2021_comparison_deflators.xlsx
+++ b/results/11-2021/11-2021_comparison_deflators.xlsx
@@ -650,31 +650,31 @@
         <v>-0.039</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3141</v>
+        <v>-0.2535</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2084</v>
+        <v>-0.209</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0851</v>
+        <v>-0.0857</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1989</v>
+        <v>-0.1995</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1534</v>
+        <v>-0.0735</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.099</v>
+        <v>-0.1004</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.5229</v>
+        <v>-0.5243</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2671</v>
+        <v>-0.2685</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1609</v>
+        <v>-0.1031</v>
       </c>
     </row>
     <row r="6">
@@ -735,10 +735,10 @@
         <v>-0.1267</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0418</v>
+        <v>-0.0428</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0544</v>
+        <v>0.0535</v>
       </c>
       <c r="H7" t="n">
         <v>-0.0828</v>
@@ -747,10 +747,10 @@
         <v>-0.1407</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1542</v>
+        <v>-0.1533</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2003</v>
+        <v>-0.1994</v>
       </c>
       <c r="L7" t="n">
         <v>-0.0724</v>
@@ -808,37 +808,37 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0226</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0448</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003</v>
+        <v>-0.0295</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0062</v>
+        <v>-0.0212</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1304</v>
+        <v>-0.0212</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0761</v>
+        <v>-0.0525</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0439</v>
+        <v>-0.0401</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0498</v>
+        <v>-0.0396</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0213</v>
+        <v>-0.0248</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0314</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="10">
@@ -849,37 +849,37 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.194</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4519</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0944</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1107</v>
+        <v>-0.0027</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0547</v>
+        <v>-0.005</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0496</v>
+        <v>-0.0072</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1522</v>
+        <v>-0.2309</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0842</v>
+        <v>-0.1947</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1234</v>
+        <v>-0.1809</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.154</v>
+        <v>-0.1675</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0847</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="11">
@@ -930,38 +930,32 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.3469</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.0562</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.0535</v>
-      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
       <c r="F12" t="n">
-        <v>-0.2471</v>
+        <v>-0.6014</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7385</v>
+        <v>-0.6539</v>
       </c>
       <c r="H12" t="n">
-        <v>0.271</v>
+        <v>-0.8608</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2848</v>
+        <v>-0.6834</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.4164</v>
+        <v>0.0193</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.3931</v>
+        <v>0.0347</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.2219</v>
+        <v>0.1981</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.2025</v>
+        <v>0.0738</v>
       </c>
     </row>
     <row r="13">
@@ -978,31 +972,31 @@
         <v>0.2321</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1389</v>
+        <v>-0.1236</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1073</v>
+        <v>-0.1112</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1219</v>
+        <v>-0.1281</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1116</v>
+        <v>-0.1171</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0509</v>
+        <v>-0.0491</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0428</v>
+        <v>-0.0434</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6116</v>
+        <v>-0.6121</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.646</v>
+        <v>-0.6467</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.303</v>
+        <v>-0.3035</v>
       </c>
     </row>
     <row r="14">
@@ -1053,38 +1047,32 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="n">
-        <v>-2.3436</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-2.1682</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-2.7222</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
       <c r="F15" t="n">
-        <v>-1.5425</v>
+        <v>-2.0325</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.7782</v>
+        <v>-4.2436</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.9507</v>
+        <v>-2.9287</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.3203</v>
+        <v>-2.2538</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.205</v>
+        <v>-1.8699</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.3709</v>
+        <v>-2.9846</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.649</v>
+        <v>-1.2404</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.9288</v>
+        <v>-0.621</v>
       </c>
     </row>
     <row r="16">
@@ -1347,31 +1335,31 @@
         <v>-0.0285</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.036</v>
+        <v>-0.0269</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0281</v>
+        <v>-0.0195</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0288</v>
+        <v>-0.0203</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0281</v>
+        <v>-0.0198</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0278</v>
+        <v>-0.0196</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0298</v>
+        <v>-0.0219</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0306</v>
+        <v>-0.0229</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0219</v>
+        <v>-0.0144</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0203</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="23">
@@ -1391,10 +1379,10 @@
         <v>0.1152</v>
       </c>
       <c r="F23" t="n">
-        <v>0.048</v>
+        <v>0.0489</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0297</v>
+        <v>-0.0288</v>
       </c>
       <c r="H23" t="n">
         <v>0.1174</v>
@@ -1403,10 +1391,10 @@
         <v>0.0996</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0967</v>
+        <v>0.0957</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0727</v>
+        <v>0.0718</v>
       </c>
       <c r="L23" t="n">
         <v>-0.074</v>
@@ -1511,31 +1499,31 @@
         <v>157.4</v>
       </c>
       <c r="E26" t="n">
-        <v>159.2929</v>
+        <v>159.2979</v>
       </c>
       <c r="F26" t="n">
-        <v>161.2086</v>
+        <v>161.2187</v>
       </c>
       <c r="G26" t="n">
-        <v>163.1473</v>
+        <v>163.1626</v>
       </c>
       <c r="H26" t="n">
-        <v>165.1093</v>
+        <v>165.13</v>
       </c>
       <c r="I26" t="n">
-        <v>167.0949</v>
+        <v>167.1211</v>
       </c>
       <c r="J26" t="n">
-        <v>169.1044</v>
+        <v>169.1363</v>
       </c>
       <c r="K26" t="n">
-        <v>171.1381</v>
+        <v>171.1757</v>
       </c>
       <c r="L26" t="n">
-        <v>173.1962</v>
+        <v>173.2397</v>
       </c>
       <c r="M26" t="n">
-        <v>175.2791</v>
+        <v>175.3286</v>
       </c>
     </row>
     <row r="27">
@@ -1757,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.105</v>
+        <v>-0.0444</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.106</v>
+        <v>-0.1066</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.108</v>
+        <v>-0.1086</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1104</v>
+        <v>-0.111</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1132</v>
+        <v>-0.0333</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1163</v>
+        <v>-0.1177</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.1196</v>
+        <v>-0.121</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.123</v>
+        <v>-0.1244</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.1267</v>
+        <v>-0.0689</v>
       </c>
     </row>
     <row r="33">
@@ -1842,22 +1830,22 @@
         <v>0.0002</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0699</v>
+        <v>-0.0708</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0688</v>
+        <v>-0.0697</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0021</v>
+        <v>0.0022</v>
       </c>
       <c r="I34" t="n">
         <v>-0.0284</v>
       </c>
       <c r="J34" t="n">
-        <v>0.008</v>
+        <v>0.0089</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0215</v>
+        <v>-0.0206</v>
       </c>
       <c r="L34" t="n">
         <v>-0.1174</v>
@@ -1915,37 +1903,37 @@
         <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.0226</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-0.0448</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.0061</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-0.0265</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-0.0149</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.1092</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.0235</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0035</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="37">
@@ -1956,37 +1944,37 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0709</v>
+        <v>-0.1231</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3138</v>
+        <v>-0.1382</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.152</v>
+        <v>-0.2464</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.1014</v>
+        <v>-0.2147</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1102</v>
+        <v>-0.1699</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.1719</v>
+        <v>-0.1295</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.0084</v>
+        <v>-0.0871</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0522</v>
+        <v>-0.0582</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0229</v>
+        <v>-0.0346</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0087</v>
+        <v>-0.0222</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2037,38 +2025,32 @@
       <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="n">
-        <v>-0.1785</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.0886</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.5265</v>
-      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
       <c r="F39" t="n">
-        <v>0.7039</v>
+        <v>0.3496</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8767</v>
+        <v>-0.5157</v>
       </c>
       <c r="H39" t="n">
-        <v>1.2127</v>
+        <v>0.0809</v>
       </c>
       <c r="I39" t="n">
-        <v>1.1886</v>
+        <v>0.2205</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.2198</v>
+        <v>0.216</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.2159</v>
+        <v>0.2119</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.2121</v>
+        <v>0.2079</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.2084</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="40">
@@ -2085,31 +2067,31 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0231</v>
+        <v>0.0384</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0358</v>
+        <v>0.032</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0357</v>
+        <v>0.0294</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0326</v>
+        <v>0.0271</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.0129</v>
+        <v>-0.0111</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.0054</v>
+        <v>-0.006</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0039</v>
+        <v>-0.0043</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.002</v>
+        <v>-0.0027</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0022</v>
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="41">
@@ -2160,38 +2142,32 @@
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="n">
-        <v>-0.1076</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.2252</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-0.7338</v>
-      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
       <c r="F42" t="n">
-        <v>0.4056</v>
+        <v>-0.0844</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5325</v>
+        <v>-0.9329</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8088</v>
+        <v>-0.1691</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9655</v>
+        <v>0.0321</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.3254</v>
+        <v>0.0097</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.3734</v>
+        <v>0.013</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.415</v>
+        <v>-0.0064</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.4139</v>
+        <v>-0.1061</v>
       </c>
     </row>
     <row r="43">
@@ -2454,31 +2430,31 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0091</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0086</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0085</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0083</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.0081</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.0079</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0077</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0075</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2498,22 +2474,22 @@
         <v>0.0001</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0704</v>
+        <v>0.0714</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0696</v>
+        <v>0.0705</v>
       </c>
       <c r="H50" t="n">
         <v>-0.0011</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0169</v>
+        <v>-0.017</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.098</v>
+        <v>-0.0989</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.1115</v>
+        <v>-0.1124</v>
       </c>
       <c r="L50" t="n">
         <v>-0.0571</v>
@@ -2618,31 +2594,31 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.0101</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0154</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.0207</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.0262</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0318</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0376</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0435</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">

--- a/results/11-2021/11-2021_comparison_deflators.xlsx
+++ b/results/11-2021/11-2021_comparison_deflators.xlsx
@@ -808,37 +808,37 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-0.0224</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.0448</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0295</v>
+        <v>-0.003</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0212</v>
+        <v>-0.0062</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0212</v>
+        <v>-0.1304</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0525</v>
+        <v>-0.0761</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0401</v>
+        <v>-0.0439</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0396</v>
+        <v>-0.0496</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0248</v>
+        <v>-0.0213</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0244</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="10">
@@ -849,34 +849,34 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.1231</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.1382</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.2464</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0027</v>
+        <v>0.2121</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.005</v>
+        <v>0.1649</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0072</v>
+        <v>0.1224</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2309</v>
+        <v>-0.1438</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1947</v>
+        <v>-0.1364</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1809</v>
+        <v>-0.1463</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1675</v>
+        <v>-0.1453</v>
       </c>
       <c r="M10" t="n">
         <v>-0.125</v>
@@ -930,17 +930,23 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="C12" t="n">
+        <v>-0.1684</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0324</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.638</v>
+      </c>
       <c r="F12" t="n">
-        <v>-0.6014</v>
+        <v>-0.7926</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6539</v>
+        <v>0.0168</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.8608</v>
+        <v>-0.7905</v>
       </c>
       <c r="I12" t="n">
         <v>-0.6834</v>
@@ -1047,32 +1053,38 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="C15" t="n">
+        <v>-2.2358</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.3933</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.7935</v>
+      </c>
       <c r="F15" t="n">
-        <v>-2.0325</v>
+        <v>-1.9824</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.2436</v>
+        <v>-3.3881</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.9287</v>
+        <v>-2.838</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.2538</v>
+        <v>-2.1902</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.8699</v>
+        <v>-1.8154</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.9846</v>
+        <v>-2.96</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.2404</v>
+        <v>-1.2147</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.621</v>
+        <v>-0.628</v>
       </c>
     </row>
     <row r="16">
@@ -1903,37 +1915,37 @@
         <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0226</v>
+        <v>0.0002</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0448</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0061</v>
+        <v>0.0002</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0265</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0149</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1092</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0235</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0038</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0102</v>
+        <v>0.0002</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0035</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1944,34 +1956,34 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1231</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1382</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2464</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2147</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1699</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.1295</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.0871</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.0582</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0346</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0222</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2025,17 +2037,23 @@
       <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.165</v>
+      </c>
       <c r="F39" t="n">
-        <v>0.3496</v>
+        <v>0.1584</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.5157</v>
+        <v>0.1549</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0809</v>
+        <v>0.1512</v>
       </c>
       <c r="I39" t="n">
         <v>0.2205</v>
@@ -2142,32 +2160,38 @@
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
+      <c r="C42" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1949</v>
+      </c>
       <c r="F42" t="n">
-        <v>-0.0844</v>
+        <v>-0.0343</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.9329</v>
+        <v>-0.0773</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.1691</v>
+        <v>-0.0785</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0321</v>
+        <v>0.0957</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0097</v>
+        <v>0.0641</v>
       </c>
       <c r="K42" t="n">
-        <v>0.013</v>
+        <v>0.0376</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0064</v>
+        <v>0.0193</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.1061</v>
+        <v>-0.1131</v>
       </c>
     </row>
     <row r="43">

--- a/results/11-2021/11-2021_comparison_deflators.xlsx
+++ b/results/11-2021/11-2021_comparison_deflators.xlsx
@@ -524,7 +524,7 @@
         <v>0.0158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0129</v>
+        <v>0.013</v>
       </c>
       <c r="E2" t="n">
         <v>0.0043</v>
@@ -609,7 +609,7 @@
         <v>0.1884</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0744</v>
+        <v>0.0743</v>
       </c>
       <c r="F4" t="n">
         <v>-0.0319</v>
@@ -647,16 +647,16 @@
         <v>0.0215</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.039</v>
+        <v>-0.0648</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2535</v>
+        <v>-0.2534</v>
       </c>
       <c r="F5" t="n">
         <v>-0.209</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0857</v>
+        <v>-0.0856</v>
       </c>
       <c r="H5" t="n">
         <v>-0.1995</v>
@@ -688,7 +688,7 @@
         <v>-0.024</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0283</v>
+        <v>-0.0302</v>
       </c>
       <c r="E6" t="n">
         <v>-0.0242</v>
@@ -700,7 +700,7 @@
         <v>-0.0283</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0361</v>
+        <v>-0.036</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0285</v>
@@ -715,7 +715,7 @@
         <v>-0.0568</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0442</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="7">
@@ -729,34 +729,34 @@
         <v>-0.2563</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1228</v>
+        <v>-0.1232</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1267</v>
+        <v>-0.1269</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0428</v>
+        <v>0.086</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0535</v>
+        <v>0.1806</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0828</v>
+        <v>0.0354</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1407</v>
+        <v>-0.0267</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1533</v>
+        <v>-0.1657</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1994</v>
+        <v>-0.2149</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0724</v>
+        <v>-0.0832</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0115</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="8">
@@ -767,37 +767,37 @@
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2721</v>
+        <v>-0.3402</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2126</v>
+        <v>-0.3036</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2557</v>
+        <v>-0.3137</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3001</v>
+        <v>-0.3461</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.6123</v>
+        <v>-0.6581</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5525</v>
+        <v>-0.5983</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.336</v>
+        <v>-0.3798</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1104</v>
+        <v>-0.1524</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0381</v>
+        <v>-0.0496</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02</v>
+        <v>0.0201</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0131</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="9">
@@ -814,7 +814,7 @@
         <v>0.0448</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0063</v>
+        <v>0.0062</v>
       </c>
       <c r="F9" t="n">
         <v>-0.003</v>
@@ -852,10 +852,10 @@
         <v>0.1231</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1382</v>
+        <v>0.1381</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2464</v>
+        <v>0.2462</v>
       </c>
       <c r="F10" t="n">
         <v>0.2121</v>
@@ -893,7 +893,7 @@
         <v>0.0102</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0114</v>
+        <v>0.0117</v>
       </c>
       <c r="E11" t="n">
         <v>0.005</v>
@@ -934,19 +934,19 @@
         <v>-0.1684</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0324</v>
+        <v>0.0141</v>
       </c>
       <c r="E12" t="n">
-        <v>0.638</v>
+        <v>0.6374</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7926</v>
+        <v>-0.7929</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0168</v>
+        <v>0.0164</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.7905</v>
+        <v>-0.7739</v>
       </c>
       <c r="I12" t="n">
         <v>-0.6834</v>
@@ -955,7 +955,7 @@
         <v>0.0193</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0347</v>
+        <v>0.0346</v>
       </c>
       <c r="L12" t="n">
         <v>0.1981</v>
@@ -975,16 +975,16 @@
         <v>0.3833</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2321</v>
+        <v>0.232</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1236</v>
+        <v>-0.1235</v>
       </c>
       <c r="F13" t="n">
         <v>-0.1112</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1281</v>
+        <v>-0.1282</v>
       </c>
       <c r="H13" t="n">
         <v>-0.1171</v>
@@ -993,7 +993,7 @@
         <v>-0.0491</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0434</v>
+        <v>-0.0435</v>
       </c>
       <c r="K13" t="n">
         <v>-0.6121</v>
@@ -1016,10 +1016,10 @@
         <v>0.1724</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9242</v>
+        <v>-0.925</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.1043</v>
+        <v>-1.1036</v>
       </c>
       <c r="F14" t="n">
         <v>-0.9956</v>
@@ -1028,19 +1028,19 @@
         <v>-1.4848</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.0289</v>
+        <v>-1.0288</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4136</v>
+        <v>-0.4135</v>
       </c>
       <c r="J14" t="n">
         <v>-0.407</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3158</v>
+        <v>-0.3157</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1464</v>
+        <v>-0.1462</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1054,37 +1054,37 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.2358</v>
+        <v>-2.304</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.3933</v>
+        <v>-2.2904</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.7935</v>
+        <v>-1.6637</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.9824</v>
+        <v>-1.841</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.3881</v>
+        <v>-3.2558</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.838</v>
+        <v>-2.8623</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.1902</v>
+        <v>-2.2348</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.8154</v>
+        <v>-1.8633</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.96</v>
+        <v>-2.9818</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.2147</v>
+        <v>-1.2245</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.628</v>
+        <v>-0.6394</v>
       </c>
     </row>
     <row r="16">
@@ -1098,7 +1098,7 @@
         <v>22741</v>
       </c>
       <c r="D16" t="n">
-        <v>23173.5</v>
+        <v>23187</v>
       </c>
       <c r="E16" t="n">
         <v>23786.3</v>
@@ -1139,10 +1139,10 @@
         <v>0.5458</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4323</v>
+        <v>0.418</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2442</v>
+        <v>-0.244</v>
       </c>
       <c r="F17" t="n">
         <v>-0.142</v>
@@ -1224,7 +1224,7 @@
         <v>-0.0489</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.2115</v>
+        <v>-1.2108</v>
       </c>
       <c r="F19" t="n">
         <v>0.0118</v>
@@ -1265,7 +1265,7 @@
         <v>-1.1106</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3762</v>
+        <v>-0.376</v>
       </c>
       <c r="F20" t="n">
         <v>-0.0628</v>
@@ -1274,7 +1274,7 @@
         <v>-1.0283</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0305</v>
+        <v>-0.0306</v>
       </c>
       <c r="I20" t="n">
         <v>-0.0205</v>
@@ -1283,7 +1283,7 @@
         <v>-0.5396</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.2622</v>
+        <v>-0.2623</v>
       </c>
       <c r="L20" t="n">
         <v>-0.0346</v>
@@ -1303,34 +1303,34 @@
         <v>-0.7397</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1771</v>
+        <v>-0.1273</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7565</v>
+        <v>0.7575</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5113</v>
+        <v>0.5123</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1127</v>
+        <v>0.1133</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0684</v>
+        <v>0.0688</v>
       </c>
       <c r="I21" t="n">
         <v>-0.1105</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1454</v>
+        <v>-0.1456</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3095</v>
+        <v>0.3094</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0739</v>
+        <v>0.0737</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0003</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="22">
@@ -1344,34 +1344,34 @@
         <v>-0.014</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0285</v>
+        <v>-0.0118</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0269</v>
+        <v>-0.027</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0195</v>
+        <v>-0.0197</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0203</v>
+        <v>-0.0205</v>
       </c>
       <c r="H22" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="I22" t="n">
         <v>-0.0198</v>
       </c>
-      <c r="I22" t="n">
-        <v>-0.0196</v>
-      </c>
       <c r="J22" t="n">
-        <v>-0.0219</v>
+        <v>-0.022</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0229</v>
+        <v>-0.0231</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0144</v>
+        <v>-0.0145</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0129</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="23">
@@ -1385,34 +1385,34 @@
         <v>0.1964</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0443</v>
+        <v>0.1389</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1152</v>
+        <v>0.2956</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0489</v>
+        <v>0.0964</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0288</v>
+        <v>0.0181</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1174</v>
+        <v>0.0019</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0996</v>
+        <v>-0.0167</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0957</v>
+        <v>0.1012</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0718</v>
+        <v>0.0757</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.074</v>
+        <v>-0.0793</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0578</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="24">
@@ -1426,31 +1426,31 @@
         <v>-0.0802</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0723</v>
+        <v>-0.0828</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0435</v>
+        <v>-0.0404</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.05</v>
+        <v>-0.0419</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1227</v>
+        <v>-0.1212</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0786</v>
+        <v>-0.0772</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0844</v>
+        <v>-0.083</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0561</v>
+        <v>-0.0547</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.022</v>
+        <v>-0.0206</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0173</v>
+        <v>-0.0112</v>
       </c>
       <c r="M24" t="n">
         <v>-0.0185</v>
@@ -1467,7 +1467,7 @@
         <v>0.0178</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0145</v>
+        <v>0.0164</v>
       </c>
       <c r="E25" t="n">
         <v>0.0071</v>
@@ -1508,34 +1508,34 @@
         <v>155</v>
       </c>
       <c r="D26" t="n">
-        <v>157.4</v>
+        <v>158</v>
       </c>
       <c r="E26" t="n">
-        <v>159.2979</v>
+        <v>159.9051</v>
       </c>
       <c r="F26" t="n">
-        <v>161.2187</v>
+        <v>161.8333</v>
       </c>
       <c r="G26" t="n">
-        <v>163.1626</v>
+        <v>163.7846</v>
       </c>
       <c r="H26" t="n">
-        <v>165.13</v>
+        <v>165.7595</v>
       </c>
       <c r="I26" t="n">
-        <v>167.1211</v>
+        <v>167.7582</v>
       </c>
       <c r="J26" t="n">
-        <v>169.1363</v>
+        <v>169.781</v>
       </c>
       <c r="K26" t="n">
-        <v>171.1757</v>
+        <v>171.8282</v>
       </c>
       <c r="L26" t="n">
-        <v>173.2397</v>
+        <v>173.9001</v>
       </c>
       <c r="M26" t="n">
-        <v>175.3286</v>
+        <v>175.9969</v>
       </c>
     </row>
     <row r="27">
@@ -1590,31 +1590,31 @@
         <v>-0.2286</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2045</v>
+        <v>-0.2048</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0711</v>
+        <v>-0.0707</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1088</v>
+        <v>-0.1086</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.222</v>
+        <v>-0.2218</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0786</v>
+        <v>-0.0784</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0434</v>
+        <v>-0.0433</v>
       </c>
       <c r="J28" t="n">
         <v>-0.0379</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0242</v>
+        <v>-0.0241</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0137</v>
+        <v>-0.0136</v>
       </c>
       <c r="M28" t="n">
         <v>-0.0051</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-0.0258</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0444</v>
+        <v>-0.0442</v>
       </c>
       <c r="F32" t="n">
         <v>-0.1066</v>
@@ -1772,10 +1772,10 @@
         <v>-0.0333</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1177</v>
+        <v>-0.1176</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.121</v>
+        <v>-0.1209</v>
       </c>
       <c r="L32" t="n">
         <v>-0.1244</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="E33" t="n">
         <v>-0.0003</v>
@@ -1816,13 +1816,13 @@
         <v>0.0087</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0091</v>
+        <v>-0.009</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0047</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="34">
@@ -1836,34 +1836,34 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0708</v>
+        <v>0.058</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0697</v>
+        <v>0.0574</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0022</v>
+        <v>0.1203</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0284</v>
+        <v>0.0856</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0089</v>
+        <v>-0.0035</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0206</v>
+        <v>-0.0361</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.1174</v>
+        <v>-0.1281</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.1386</v>
+        <v>-0.1461</v>
       </c>
     </row>
     <row r="35">
@@ -1874,37 +1874,37 @@
         <v>41</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0.0682</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-0.091</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0693</v>
+        <v>-0.1273</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2508</v>
+        <v>-0.2968</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.2885</v>
+        <v>-0.3343</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.2819</v>
+        <v>-0.3277</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1653</v>
+        <v>-0.2092</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0631</v>
+        <v>-0.1051</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0353</v>
+        <v>-0.0468</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0011</v>
+        <v>-0.0009</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0271</v>
+        <v>-0.027</v>
       </c>
     </row>
     <row r="36">
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2041,34 +2041,34 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-0.0182</v>
       </c>
       <c r="E39" t="n">
-        <v>0.165</v>
+        <v>0.1644</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1584</v>
+        <v>0.1581</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1549</v>
+        <v>0.1546</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1512</v>
+        <v>0.1678</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2205</v>
+        <v>0.2204</v>
       </c>
       <c r="J39" t="n">
-        <v>0.216</v>
+        <v>0.2159</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2119</v>
+        <v>0.2118</v>
       </c>
       <c r="L39" t="n">
         <v>0.2079</v>
       </c>
       <c r="M39" t="n">
-        <v>0.068</v>
+        <v>0.0679</v>
       </c>
     </row>
     <row r="40">
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0384</v>
+        <v>0.0385</v>
       </c>
       <c r="F40" t="n">
         <v>0.032</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2161,37 +2161,37 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001</v>
+        <v>-0.068</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.1029</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1949</v>
+        <v>0.3247</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0343</v>
+        <v>0.1071</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0773</v>
+        <v>0.055</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.0785</v>
+        <v>-0.1028</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0957</v>
+        <v>0.051</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0641</v>
+        <v>0.0162</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0376</v>
+        <v>0.0158</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0193</v>
+        <v>0.0095</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.1131</v>
+        <v>-0.1245</v>
       </c>
     </row>
     <row r="43">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-0.0143</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.105</v>
+        <v>-0.1048</v>
       </c>
       <c r="F44" t="n">
         <v>-0.106</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2410,34 +2410,34 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.0498</v>
       </c>
       <c r="E48" t="n">
-        <v>0.105</v>
+        <v>0.1059</v>
       </c>
       <c r="F48" t="n">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="G48" t="n">
-        <v>0.108</v>
+        <v>0.1087</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1104</v>
+        <v>0.1108</v>
       </c>
       <c r="I48" t="n">
         <v>0.1132</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1163</v>
+        <v>0.1161</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1196</v>
+        <v>0.1194</v>
       </c>
       <c r="L48" t="n">
-        <v>0.123</v>
+        <v>0.1228</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1267</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="49">
@@ -2451,34 +2451,34 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="50">
@@ -2492,34 +2492,34 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.1832</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0001</v>
+        <v>0.1805</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0714</v>
+        <v>0.1189</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0705</v>
+        <v>0.1174</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.0011</v>
+        <v>-0.1166</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.017</v>
+        <v>-0.1333</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0989</v>
+        <v>-0.0935</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.1124</v>
+        <v>-0.1085</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0571</v>
+        <v>-0.0623</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0659</v>
+        <v>-0.0696</v>
       </c>
     </row>
     <row r="51">
@@ -2533,31 +2533,31 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-0.0105</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2615,34 +2615,34 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.6072</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.6146</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.622</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.6295</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.6371</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.6447</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>0.6525</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.6604</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.6683</v>
       </c>
     </row>
     <row r="54">
@@ -2697,31 +2697,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>

--- a/results/11-2021/11-2021_comparison_deflators.xlsx
+++ b/results/11-2021/11-2021_comparison_deflators.xlsx
@@ -650,10 +650,10 @@
         <v>-0.0648</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2534</v>
+        <v>-0.2132</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.209</v>
+        <v>-0.2486</v>
       </c>
       <c r="G5" t="n">
         <v>-0.0856</v>
@@ -814,22 +814,22 @@
         <v>0.0448</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0062</v>
+        <v>0.0203</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003</v>
+        <v>-0.007</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0062</v>
+        <v>-0.0063</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1304</v>
+        <v>-0.1352</v>
       </c>
       <c r="I9" t="n">
         <v>-0.0761</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0439</v>
+        <v>-0.044</v>
       </c>
       <c r="K9" t="n">
         <v>-0.0496</v>
@@ -838,7 +838,7 @@
         <v>-0.0213</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0314</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="10">
@@ -937,25 +937,25 @@
         <v>0.0141</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6374</v>
+        <v>0.5054</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7929</v>
+        <v>-0.7273</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0164</v>
+        <v>0.0803</v>
       </c>
       <c r="H12" t="n">
         <v>-0.7739</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6834</v>
+        <v>-0.5601</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0193</v>
+        <v>-0.0431</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0346</v>
+        <v>-0.0266</v>
       </c>
       <c r="L12" t="n">
         <v>0.1981</v>
@@ -978,19 +978,19 @@
         <v>0.232</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1235</v>
+        <v>-0.1205</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1112</v>
+        <v>-0.1116</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1282</v>
+        <v>-0.1283</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1171</v>
+        <v>-0.1173</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0491</v>
+        <v>-0.0493</v>
       </c>
       <c r="J13" t="n">
         <v>-0.0435</v>
@@ -1002,7 +1002,7 @@
         <v>-0.6467</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.3035</v>
+        <v>-0.3036</v>
       </c>
     </row>
     <row r="14">
@@ -1060,31 +1060,31 @@
         <v>-2.2904</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.6637</v>
+        <v>-1.7426</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.841</v>
+        <v>-1.7903</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.2558</v>
+        <v>-3.227</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.8623</v>
+        <v>-2.8697</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.2348</v>
+        <v>-2.1116</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.8633</v>
+        <v>-1.9137</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.9818</v>
+        <v>-3.0431</v>
       </c>
       <c r="L15" t="n">
         <v>-1.2245</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.6394</v>
+        <v>-0.6396</v>
       </c>
     </row>
     <row r="16">
@@ -1142,10 +1142,10 @@
         <v>0.418</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.244</v>
+        <v>-0.2039</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.142</v>
+        <v>-0.1816</v>
       </c>
       <c r="G17" t="n">
         <v>0.1377</v>
@@ -1224,25 +1224,25 @@
         <v>-0.0489</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.2108</v>
+        <v>-1.1747</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0118</v>
+        <v>0.0014</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0013</v>
+        <v>-0.0335</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.033</v>
+        <v>-0.0353</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.035</v>
+        <v>-0.0348</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0345</v>
+        <v>-0.0224</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.0899</v>
+        <v>-1.0898</v>
       </c>
       <c r="L19" t="n">
         <v>-0.0002</v>
@@ -1306,10 +1306,10 @@
         <v>-0.1273</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7575</v>
+        <v>0.7173</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5123</v>
+        <v>0.552</v>
       </c>
       <c r="G21" t="n">
         <v>0.1133</v>
@@ -1757,10 +1757,10 @@
         <v>-0.0258</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0442</v>
+        <v>-0.0041</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1066</v>
+        <v>-0.1463</v>
       </c>
       <c r="G32" t="n">
         <v>-0.1086</v>
@@ -1921,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0002</v>
+        <v>0.0142</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-0.0048</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>-0.0182</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1644</v>
+        <v>0.0325</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1581</v>
+        <v>0.2237</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1546</v>
+        <v>0.2185</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1678</v>
+        <v>0.1677</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2204</v>
+        <v>0.3438</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2159</v>
+        <v>0.1536</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2118</v>
+        <v>0.1506</v>
       </c>
       <c r="L39" t="n">
         <v>0.2079</v>
@@ -2085,31 +2085,31 @@
         <v>-0.0001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0385</v>
+        <v>0.0415</v>
       </c>
       <c r="F40" t="n">
-        <v>0.032</v>
+        <v>0.0315</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0294</v>
+        <v>0.0293</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0271</v>
+        <v>0.0269</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.0111</v>
+        <v>-0.0112</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.006</v>
+        <v>-0.0061</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0043</v>
+        <v>-0.0044</v>
       </c>
       <c r="L40" t="n">
         <v>-0.0027</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0026</v>
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="41">
@@ -2167,31 +2167,31 @@
         <v>0.1029</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3247</v>
+        <v>0.2458</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1071</v>
+        <v>0.1578</v>
       </c>
       <c r="G42" t="n">
-        <v>0.055</v>
+        <v>0.0838</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.1028</v>
+        <v>-0.1102</v>
       </c>
       <c r="I42" t="n">
-        <v>0.051</v>
+        <v>0.1743</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0162</v>
+        <v>-0.0341</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0158</v>
+        <v>-0.0455</v>
       </c>
       <c r="L42" t="n">
         <v>0.0095</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.1245</v>
+        <v>-0.1247</v>
       </c>
     </row>
     <row r="43">
@@ -2249,10 +2249,10 @@
         <v>-0.0143</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.1048</v>
+        <v>-0.0647</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.106</v>
+        <v>-0.1457</v>
       </c>
       <c r="G44" t="n">
         <v>-0.108</v>
@@ -2331,22 +2331,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0007</v>
+        <v>0.0368</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-0.0104</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-0.0348</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-0.0023</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0.0498</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1059</v>
+        <v>0.0658</v>
       </c>
       <c r="F48" t="n">
-        <v>0.107</v>
+        <v>0.1467</v>
       </c>
       <c r="G48" t="n">
         <v>0.1087</v>
